--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp4</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp4</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H2">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I2">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J2">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N2">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O2">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P2">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q2">
-        <v>464.8101355354984</v>
+        <v>417.7102287681843</v>
       </c>
       <c r="R2">
-        <v>1859.240542141994</v>
+        <v>1670.840915072737</v>
       </c>
       <c r="S2">
-        <v>0.09687862160191656</v>
+        <v>0.1607234975010877</v>
       </c>
       <c r="T2">
-        <v>0.06319368470419279</v>
+        <v>0.1110165858126904</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H3">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I3">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J3">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P3">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q3">
-        <v>237.694123959441</v>
+        <v>226.4055096844831</v>
       </c>
       <c r="R3">
-        <v>1426.164743756646</v>
+        <v>1358.433058106898</v>
       </c>
       <c r="S3">
-        <v>0.04954168881351142</v>
+        <v>0.08711466194475462</v>
       </c>
       <c r="T3">
-        <v>0.04847388119525547</v>
+        <v>0.09025910175269726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H4">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I4">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J4">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N4">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O4">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P4">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q4">
-        <v>200.1871511784776</v>
+        <v>191.8797340467465</v>
       </c>
       <c r="R4">
-        <v>1201.122907070866</v>
+        <v>1151.278404280479</v>
       </c>
       <c r="S4">
-        <v>0.04172425208895698</v>
+        <v>0.07383008562303271</v>
       </c>
       <c r="T4">
-        <v>0.04082493930181459</v>
+        <v>0.07649501314584284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H5">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I5">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J5">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N5">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O5">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P5">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q5">
-        <v>311.0094001486687</v>
+        <v>243.2034931654393</v>
       </c>
       <c r="R5">
-        <v>1244.037600594675</v>
+        <v>972.8139726617571</v>
       </c>
       <c r="S5">
-        <v>0.06482251501880347</v>
+        <v>0.09357806760275469</v>
       </c>
       <c r="T5">
-        <v>0.04228356584864983</v>
+        <v>0.06463720447681683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H6">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I6">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J6">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N6">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O6">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P6">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q6">
-        <v>314.5002492844664</v>
+        <v>160.3492361292154</v>
       </c>
       <c r="R6">
-        <v>1887.001495706798</v>
+        <v>962.0954167752923</v>
       </c>
       <c r="S6">
-        <v>0.06555009952404818</v>
+        <v>0.0616980104325332</v>
       </c>
       <c r="T6">
-        <v>0.06413725112655623</v>
+        <v>0.06392502567593676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.705785499999999</v>
+        <v>9.244836500000002</v>
       </c>
       <c r="H7">
-        <v>19.411571</v>
+        <v>18.489673</v>
       </c>
       <c r="I7">
-        <v>0.3626960398572868</v>
+        <v>0.5388391951160159</v>
       </c>
       <c r="J7">
-        <v>0.3021399662106912</v>
+        <v>0.470461923919491</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N7">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O7">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P7">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q7">
-        <v>211.9640315994898</v>
+        <v>160.8608669524105</v>
       </c>
       <c r="R7">
-        <v>1271.784189596939</v>
+        <v>965.1652017144631</v>
       </c>
       <c r="S7">
-        <v>0.04417886281005027</v>
+        <v>0.06189487201185287</v>
       </c>
       <c r="T7">
-        <v>0.04322664403422222</v>
+        <v>0.0641289930555069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>14.961619</v>
       </c>
       <c r="I8">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J8">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N8">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O8">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P8">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q8">
-        <v>238.8373462137777</v>
+        <v>225.3373651779352</v>
       </c>
       <c r="R8">
-        <v>1433.024077282666</v>
+        <v>1352.024191067611</v>
       </c>
       <c r="S8">
-        <v>0.0497799663116068</v>
+        <v>0.08670366908629576</v>
       </c>
       <c r="T8">
-        <v>0.04870702292721493</v>
+        <v>0.08983327393676889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>14.961619</v>
       </c>
       <c r="I9">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J9">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P9">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q9">
         <v>122.136393845366</v>
@@ -1013,10 +1013,10 @@
         <v>1099.227544608294</v>
       </c>
       <c r="S9">
-        <v>0.0254564274282358</v>
+        <v>0.04699475147852237</v>
       </c>
       <c r="T9">
-        <v>0.03736162013340791</v>
+        <v>0.07303656974929131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>14.961619</v>
       </c>
       <c r="I10">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J10">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N10">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O10">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P10">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q10">
-        <v>102.8638669388749</v>
+        <v>103.511168085693</v>
       </c>
       <c r="R10">
-        <v>925.7748024498742</v>
+        <v>931.6005127712369</v>
       </c>
       <c r="S10">
-        <v>0.02143952741090794</v>
+        <v>0.03982827285368768</v>
       </c>
       <c r="T10">
-        <v>0.03146613880617267</v>
+        <v>0.06189883629029522</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>14.961619</v>
       </c>
       <c r="I11">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J11">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N11">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O11">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P11">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q11">
-        <v>159.8086059235125</v>
+        <v>131.1982100931118</v>
       </c>
       <c r="R11">
-        <v>958.8516355410751</v>
+        <v>787.189260558671</v>
       </c>
       <c r="S11">
-        <v>0.03330830435562086</v>
+        <v>0.05048149109068105</v>
       </c>
       <c r="T11">
-        <v>0.03259038653743741</v>
+        <v>0.05230364142228083</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>14.961619</v>
       </c>
       <c r="I12">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J12">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N12">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O12">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P12">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q12">
-        <v>161.6023386326025</v>
+        <v>86.50177057958624</v>
       </c>
       <c r="R12">
-        <v>1454.421047693422</v>
+        <v>778.515935216276</v>
       </c>
       <c r="S12">
-        <v>0.03368216529171837</v>
+        <v>0.03328352084790203</v>
       </c>
       <c r="T12">
-        <v>0.04943428407019995</v>
+        <v>0.05172735497964637</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>14.961619</v>
       </c>
       <c r="I13">
-        <v>0.1863671917178862</v>
+        <v>0.2906814248722333</v>
       </c>
       <c r="J13">
-        <v>0.2328767238425595</v>
+        <v>0.3806920792861188</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N13">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O13">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P13">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q13">
-        <v>108.9152815948635</v>
+        <v>86.77777421488767</v>
       </c>
       <c r="R13">
-        <v>980.2375343537711</v>
+        <v>780.999967933989</v>
       </c>
       <c r="S13">
-        <v>0.02270080091979646</v>
+        <v>0.03338971951514434</v>
       </c>
       <c r="T13">
-        <v>0.03331727136812656</v>
+        <v>0.05189240290783616</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H14">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I14">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J14">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N14">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O14">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P14">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q14">
-        <v>303.028425173144</v>
+        <v>132.156274952557</v>
       </c>
       <c r="R14">
-        <v>1212.113700692576</v>
+        <v>528.625099810228</v>
       </c>
       <c r="S14">
-        <v>0.06315907053780596</v>
+        <v>0.05085012830480197</v>
       </c>
       <c r="T14">
-        <v>0.0411985051374536</v>
+        <v>0.03512372316622939</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H15">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I15">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J15">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>24.489942</v>
       </c>
       <c r="N15">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O15">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P15">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q15">
-        <v>154.962361079664</v>
+        <v>71.630778295452</v>
       </c>
       <c r="R15">
-        <v>929.774166477984</v>
+        <v>429.784669772712</v>
       </c>
       <c r="S15">
-        <v>0.03229821984041006</v>
+        <v>0.02756156881846255</v>
       </c>
       <c r="T15">
-        <v>0.03160207309960116</v>
+        <v>0.02855641506164816</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H16">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I16">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J16">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N16">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O16">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P16">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q16">
-        <v>130.5100567388107</v>
+        <v>60.70742142294599</v>
       </c>
       <c r="R16">
-        <v>783.060340432864</v>
+        <v>364.2445285376759</v>
       </c>
       <c r="S16">
-        <v>0.02720171836932389</v>
+        <v>0.02335855917184929</v>
       </c>
       <c r="T16">
-        <v>0.02661542018692332</v>
+        <v>0.02420169604084988</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H17">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I17">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J17">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N17">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O17">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P17">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q17">
-        <v>202.7595388653</v>
+        <v>76.945369058777</v>
       </c>
       <c r="R17">
-        <v>811.0381554611999</v>
+        <v>307.781476235108</v>
       </c>
       <c r="S17">
-        <v>0.04226040514215575</v>
+        <v>0.02960647831897328</v>
       </c>
       <c r="T17">
-        <v>0.02756635750866222</v>
+        <v>0.02045009094508793</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H18">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I18">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J18">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N18">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O18">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P18">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q18">
-        <v>205.0353638425654</v>
+        <v>50.73171849494133</v>
       </c>
       <c r="R18">
-        <v>1230.212183055392</v>
+        <v>304.390310969648</v>
       </c>
       <c r="S18">
-        <v>0.04273474674951049</v>
+        <v>0.01952018090338092</v>
       </c>
       <c r="T18">
-        <v>0.04181365404483627</v>
+        <v>0.02022476991882998</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.327592</v>
+        <v>2.924906</v>
       </c>
       <c r="H19">
-        <v>12.655184</v>
+        <v>5.849812</v>
       </c>
       <c r="I19">
-        <v>0.2364561384787094</v>
+        <v>0.1704793800117509</v>
       </c>
       <c r="J19">
-        <v>0.1969771980923172</v>
+        <v>0.1488459967943903</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N19">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O19">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P19">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q19">
-        <v>138.1878788313093</v>
+        <v>50.893589617762</v>
       </c>
       <c r="R19">
-        <v>829.1272729878559</v>
+        <v>305.361537706572</v>
       </c>
       <c r="S19">
-        <v>0.02880197783950321</v>
+        <v>0.01958246449428289</v>
       </c>
       <c r="T19">
-        <v>0.0281811881148406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.739525</v>
-      </c>
-      <c r="H20">
-        <v>17.218575</v>
-      </c>
-      <c r="I20">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J20">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>47.890007</v>
-      </c>
-      <c r="N20">
-        <v>95.78001399999999</v>
-      </c>
-      <c r="O20">
-        <v>0.2671069186198896</v>
-      </c>
-      <c r="P20">
-        <v>0.2091536763465643</v>
-      </c>
-      <c r="Q20">
-        <v>274.865892426675</v>
-      </c>
-      <c r="R20">
-        <v>1649.19535456005</v>
-      </c>
-      <c r="S20">
-        <v>0.05728926016856029</v>
-      </c>
-      <c r="T20">
-        <v>0.05605446357770302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.739525</v>
-      </c>
-      <c r="H21">
-        <v>17.218575</v>
-      </c>
-      <c r="I21">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J21">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>24.489942</v>
-      </c>
-      <c r="N21">
-        <v>73.469826</v>
-      </c>
-      <c r="O21">
-        <v>0.136592858397365</v>
-      </c>
-      <c r="P21">
-        <v>0.1604351844054063</v>
-      </c>
-      <c r="Q21">
-        <v>140.56063435755</v>
-      </c>
-      <c r="R21">
-        <v>1265.04570921795</v>
-      </c>
-      <c r="S21">
-        <v>0.02929652231520768</v>
-      </c>
-      <c r="T21">
-        <v>0.04299760997714178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>5.739525</v>
-      </c>
-      <c r="H22">
-        <v>17.218575</v>
-      </c>
-      <c r="I22">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J22">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>20.62554866666667</v>
-      </c>
-      <c r="N22">
-        <v>61.876646</v>
-      </c>
-      <c r="O22">
-        <v>0.1150391719340928</v>
-      </c>
-      <c r="P22">
-        <v>0.1351192952518772</v>
-      </c>
-      <c r="Q22">
-        <v>118.38085221105</v>
-      </c>
-      <c r="R22">
-        <v>1065.42766989945</v>
-      </c>
-      <c r="S22">
-        <v>0.02467367406490395</v>
-      </c>
-      <c r="T22">
-        <v>0.03621279695696665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>5.739525</v>
-      </c>
-      <c r="H23">
-        <v>17.218575</v>
-      </c>
-      <c r="I23">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J23">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>32.0437125</v>
-      </c>
-      <c r="N23">
-        <v>64.087425</v>
-      </c>
-      <c r="O23">
-        <v>0.1787240771757799</v>
-      </c>
-      <c r="P23">
-        <v>0.1399469470356803</v>
-      </c>
-      <c r="Q23">
-        <v>183.9156889865625</v>
-      </c>
-      <c r="R23">
-        <v>1103.494133919375</v>
-      </c>
-      <c r="S23">
-        <v>0.03833285265919981</v>
-      </c>
-      <c r="T23">
-        <v>0.03750663714093082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>5.739525</v>
-      </c>
-      <c r="H24">
-        <v>17.218575</v>
-      </c>
-      <c r="I24">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J24">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>32.40337933333334</v>
-      </c>
-      <c r="N24">
-        <v>97.21013800000001</v>
-      </c>
-      <c r="O24">
-        <v>0.1807301219771816</v>
-      </c>
-      <c r="P24">
-        <v>0.2122766211002732</v>
-      </c>
-      <c r="Q24">
-        <v>185.98000576815</v>
-      </c>
-      <c r="R24">
-        <v>1673.82005191335</v>
-      </c>
-      <c r="S24">
-        <v>0.03876311041190459</v>
-      </c>
-      <c r="T24">
-        <v>0.05689143185868072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.739525</v>
-      </c>
-      <c r="H25">
-        <v>17.218575</v>
-      </c>
-      <c r="I25">
-        <v>0.2144806299461176</v>
-      </c>
-      <c r="J25">
-        <v>0.2680061118544321</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>21.83893633333333</v>
-      </c>
-      <c r="N25">
-        <v>65.51680899999999</v>
-      </c>
-      <c r="O25">
-        <v>0.1218068518956913</v>
-      </c>
-      <c r="P25">
-        <v>0.1430682758601985</v>
-      </c>
-      <c r="Q25">
-        <v>125.345121058575</v>
-      </c>
-      <c r="R25">
-        <v>1128.106089527175</v>
-      </c>
-      <c r="S25">
-        <v>0.02612521032634131</v>
-      </c>
-      <c r="T25">
-        <v>0.03834317234300911</v>
+        <v>0.02028930166174495</v>
       </c>
     </row>
   </sheetData>
